--- a/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -533,18 +533,6 @@
   <si>
     <t xml:space="preserve">Identifier {http://hl7.dk/fhir/core/StructureDefinition/dk-core-cpr-identifier}
 </t>
-  </si>
-  <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -3377,16 +3365,16 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3448,22 +3436,22 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3471,10 +3459,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3497,26 +3485,26 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="P14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="R14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3560,7 +3548,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3575,13 +3563,13 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3592,10 +3580,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3618,19 +3606,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3679,7 +3667,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3694,16 +3682,16 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3711,10 +3699,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3737,19 +3725,19 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3798,7 +3786,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3813,16 +3801,16 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3830,10 +3818,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3859,16 +3847,16 @@
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3893,13 +3881,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3917,7 +3905,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3932,16 +3920,16 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -3949,10 +3937,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3975,19 +3963,19 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4036,7 +4024,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4051,27 +4039,27 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4094,19 +4082,19 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4143,7 +4131,7 @@
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
@@ -4153,7 +4141,7 @@
         <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4168,16 +4156,16 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4185,13 +4173,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
@@ -4213,19 +4201,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4274,7 +4262,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4289,16 +4277,16 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4306,10 +4294,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4332,19 +4320,19 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4381,17 +4369,17 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4406,16 +4394,16 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4423,13 +4411,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
@@ -4451,19 +4439,19 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4512,7 +4500,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4527,16 +4515,16 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4544,10 +4532,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4570,13 +4558,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4627,7 +4615,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4642,7 +4630,7 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4659,10 +4647,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4688,10 +4676,10 @@
         <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>149</v>
@@ -4735,7 +4723,7 @@
         <v>135</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>79</v>
@@ -4744,7 +4732,7 @@
         <v>136</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4759,7 +4747,7 @@
         <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4776,13 +4764,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
@@ -4804,13 +4792,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4861,7 +4849,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4893,13 +4881,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>79</v>
@@ -4921,13 +4909,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4978,7 +4966,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5010,10 +4998,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5039,29 +5027,29 @@
         <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>79</v>
@@ -5073,13 +5061,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -5097,7 +5085,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5112,7 +5100,7 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
@@ -5121,7 +5109,7 @@
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5129,10 +5117,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5158,13 +5146,13 @@
         <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5178,7 +5166,7 @@
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -5190,13 +5178,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5214,7 +5202,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5229,7 +5217,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
@@ -5238,7 +5226,7 @@
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5246,10 +5234,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5272,19 +5260,19 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5297,7 +5285,7 @@
         <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>79</v>
@@ -5333,7 +5321,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5348,7 +5336,7 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
@@ -5357,7 +5345,7 @@
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5365,10 +5353,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5391,13 +5379,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5412,7 +5400,7 @@
         <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>79</v>
@@ -5448,7 +5436,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5463,7 +5451,7 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>79</v>
@@ -5472,7 +5460,7 @@
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5480,14 +5468,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5506,13 +5494,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5527,7 +5515,7 @@
         <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>79</v>
@@ -5563,7 +5551,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5578,7 +5566,7 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5587,7 +5575,7 @@
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5595,14 +5583,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5621,16 +5609,16 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5644,7 +5632,7 @@
         <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>79</v>
@@ -5680,7 +5668,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5695,7 +5683,7 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
@@ -5704,7 +5692,7 @@
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5712,14 +5700,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5738,13 +5726,13 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5795,7 +5783,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5810,7 +5798,7 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
@@ -5819,7 +5807,7 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5827,14 +5815,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5853,13 +5841,13 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5874,7 +5862,7 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>79</v>
@@ -5910,7 +5898,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5925,7 +5913,7 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -5934,7 +5922,7 @@
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5942,10 +5930,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5968,16 +5956,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6027,7 +6015,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6042,7 +6030,7 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
@@ -6051,7 +6039,7 @@
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6059,10 +6047,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6085,17 +6073,17 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6108,7 +6096,7 @@
         <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>79</v>
@@ -6144,7 +6132,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6159,7 +6147,7 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
@@ -6168,7 +6156,7 @@
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6176,10 +6164,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6202,17 +6190,17 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6237,13 +6225,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6261,7 +6249,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6276,16 +6264,16 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6293,10 +6281,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6319,19 +6307,19 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6380,7 +6368,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6395,16 +6383,16 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6412,10 +6400,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6438,19 +6426,19 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6499,7 +6487,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6514,16 +6502,16 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6531,10 +6519,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6557,19 +6545,19 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6618,7 +6606,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6630,13 +6618,13 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6650,10 +6638,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6676,13 +6664,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6733,7 +6721,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6748,7 +6736,7 @@
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -6765,10 +6753,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6794,10 +6782,10 @@
         <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>149</v>
@@ -6850,7 +6838,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6865,7 +6853,7 @@
         <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
@@ -6882,14 +6870,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6911,10 +6899,10 @@
         <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>149</v>
@@ -6969,7 +6957,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7001,10 +6989,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7027,17 +7015,17 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7062,13 +7050,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7086,7 +7074,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7101,16 +7089,16 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7118,10 +7106,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7144,17 +7132,17 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7203,7 +7191,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7218,16 +7206,16 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7235,10 +7223,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7261,19 +7249,19 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7322,7 +7310,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7337,16 +7325,16 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7354,10 +7342,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7380,17 +7368,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7439,7 +7427,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7454,16 +7442,16 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7471,10 +7459,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7500,14 +7488,14 @@
         <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7532,13 +7520,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7556,7 +7544,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7571,16 +7559,16 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7588,10 +7576,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7614,17 +7602,17 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7673,7 +7661,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7682,22 +7670,22 @@
         <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7705,10 +7693,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7731,13 +7719,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7788,7 +7776,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7803,10 +7791,10 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7820,10 +7808,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7846,19 +7834,19 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7907,7 +7895,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7922,10 +7910,10 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7939,10 +7927,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7965,13 +7953,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8022,7 +8010,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8037,7 +8025,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -8054,10 +8042,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8083,10 +8071,10 @@
         <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>149</v>
@@ -8139,7 +8127,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8154,7 +8142,7 @@
         <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -8171,14 +8159,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8200,10 +8188,10 @@
         <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>149</v>
@@ -8258,7 +8246,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8290,10 +8278,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8316,19 +8304,19 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8377,7 +8365,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>87</v>
@@ -8392,16 +8380,16 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8409,10 +8397,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8435,19 +8423,19 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8496,7 +8484,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8511,16 +8499,16 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8528,14 +8516,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8554,16 +8542,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8613,7 +8601,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8628,16 +8616,16 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -8645,10 +8633,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8671,19 +8659,19 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8732,7 +8720,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8747,10 +8735,10 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8764,10 +8752,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8790,19 +8778,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8851,7 +8839,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8866,10 +8854,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8883,10 +8871,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8909,13 +8897,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8966,7 +8954,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8981,7 +8969,7 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
@@ -8998,10 +8986,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9027,10 +9015,10 @@
         <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>149</v>
@@ -9083,7 +9071,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9098,7 +9086,7 @@
         <v>138</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
@@ -9115,14 +9103,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9144,10 +9132,10 @@
         <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>149</v>
@@ -9202,7 +9190,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9234,10 +9222,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9260,16 +9248,16 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9319,7 +9307,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>87</v>
@@ -9337,13 +9325,13 @@
         <v>158</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9351,10 +9339,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9380,10 +9368,10 @@
         <v>107</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9410,13 +9398,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9434,7 +9422,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
@@ -9449,10 +9437,10 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>

--- a/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1892,17 +1892,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.54296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1911,27 +1911,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.35546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-skrs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -365,7 +365,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1150,7 +1150,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -1279,7 +1279,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -1348,7 +1348,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1468,7 +1468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1539,7 +1539,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1917,7 +1917,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.35546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -9454,12 +9454,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO64">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
